--- a/数据库表/ai_admin.xlsx
+++ b/数据库表/ai_admin.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ai_admin_id</t>
   </si>
@@ -37,12 +37,6 @@
   </si>
   <si>
     <t>ai_id_card</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>管理员</t>
   </si>
 </sst>
 </file>
@@ -86,7 +80,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -115,32 +109,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/数据库表/ai_admin.xlsx
+++ b/数据库表/ai_admin.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>ai_admin_id</t>
   </si>
@@ -37,6 +37,24 @@
   </si>
   <si>
     <t>ai_id_card</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>管理员</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>开发者</t>
+  </si>
+  <si>
+    <t>高级管理员</t>
   </si>
 </sst>
 </file>
@@ -80,7 +98,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H4"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -109,6 +127,75 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>